--- a/data/outputs/management/87.xlsx
+++ b/data/outputs/management/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ20"/>
+  <dimension ref="A1:BR20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -907,6 +912,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4401229</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1112,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1309,6 +1320,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1512,6 +1524,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1707,6 +1720,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1890,6 +1904,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2089,6 +2104,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>10068671</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2300,6 +2320,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2495,6 +2516,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2698,6 +2720,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2905,6 +2928,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3112,6 +3136,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4512585</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3315,6 +3344,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>6126784</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3518,6 +3552,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3721,6 +3756,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3932,6 +3968,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>17971792</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4135,6 +4176,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4330,6 +4372,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>2823568</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4529,6 +4576,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
